--- a/샘플데이터/학사 성적데이터/샘플-학사정보데이터(2021-06-24).xlsx
+++ b/샘플데이터/학사 성적데이터/샘플-학사정보데이터(2021-06-24).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\학사 성적데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Reference\샘플데이터\학사 성적데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB147377-6AD3-44DA-86E1-AEDB10EAFBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보샘플" sheetId="2" r:id="rId1"/>
     <sheet name="학생정보샘플2" sheetId="4" r:id="rId2"/>
     <sheet name="성적데이터" sheetId="1" r:id="rId3"/>
-    <sheet name="과목코드" sheetId="3" r:id="rId4"/>
+    <sheet name="성적데이터정규화" sheetId="5" r:id="rId4"/>
+    <sheet name="과목코드" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="598">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1468,9 +1468,6 @@
     <t>가정</t>
   </si>
   <si>
-    <t>정보</t>
-  </si>
-  <si>
     <t>과목코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1839,13 +1836,29 @@
   </si>
   <si>
     <t>학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보기술</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1901,7 +1914,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1913,10 +1926,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{AC948BA1-4825-478A-B53C-AE258C3EBC68}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2227,7 +2243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD888BB4-F460-405F-9BD1-36923EFC898F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4268,10 +4284,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743B91AD-A1F7-4359-AC5E-5EF5C8F6E15C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4292,7 +4308,7 @@
         <v>451</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>449</v>
@@ -4306,7 +4322,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>445</v>
@@ -4326,7 +4342,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>442</v>
@@ -4346,7 +4362,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>439</v>
@@ -4366,7 +4382,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>436</v>
@@ -4386,7 +4402,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>433</v>
@@ -4406,7 +4422,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>430</v>
@@ -4426,7 +4442,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>427</v>
@@ -4446,7 +4462,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>424</v>
@@ -4466,7 +4482,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>421</v>
@@ -4486,7 +4502,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>418</v>
@@ -4506,7 +4522,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>415</v>
@@ -4526,7 +4542,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>412</v>
@@ -4546,7 +4562,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>409</v>
@@ -4566,7 +4582,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>406</v>
@@ -4586,7 +4602,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>403</v>
@@ -4606,7 +4622,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>400</v>
@@ -4626,7 +4642,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>397</v>
@@ -4646,7 +4662,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>394</v>
@@ -4666,7 +4682,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>391</v>
@@ -4686,7 +4702,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>388</v>
@@ -4706,7 +4722,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>385</v>
@@ -4726,7 +4742,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>382</v>
@@ -4746,7 +4762,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>379</v>
@@ -4766,7 +4782,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>376</v>
@@ -4786,7 +4802,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>373</v>
@@ -4806,7 +4822,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>370</v>
@@ -4826,7 +4842,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>367</v>
@@ -4846,7 +4862,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>363</v>
@@ -4866,7 +4882,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>360</v>
@@ -4886,7 +4902,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>357</v>
@@ -4906,7 +4922,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>354</v>
@@ -4926,7 +4942,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>351</v>
@@ -4946,7 +4962,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>348</v>
@@ -4966,7 +4982,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>345</v>
@@ -4986,7 +5002,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>342</v>
@@ -5006,7 +5022,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>339</v>
@@ -5026,7 +5042,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>336</v>
@@ -5046,7 +5062,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>333</v>
@@ -5066,7 +5082,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>330</v>
@@ -5086,7 +5102,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>327</v>
@@ -5106,7 +5122,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>324</v>
@@ -5126,7 +5142,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>321</v>
@@ -5146,7 +5162,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>318</v>
@@ -5166,7 +5182,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>315</v>
@@ -5186,7 +5202,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>312</v>
@@ -5206,7 +5222,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>309</v>
@@ -5226,7 +5242,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>305</v>
@@ -5246,7 +5262,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>302</v>
@@ -5266,7 +5282,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>299</v>
@@ -5286,7 +5302,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>296</v>
@@ -5306,7 +5322,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>293</v>
@@ -5326,7 +5342,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>289</v>
@@ -5346,7 +5362,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>286</v>
@@ -5366,7 +5382,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>283</v>
@@ -5386,7 +5402,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>280</v>
@@ -5406,7 +5422,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>276</v>
@@ -5426,7 +5442,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>272</v>
@@ -5446,7 +5462,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>269</v>
@@ -5466,7 +5482,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>266</v>
@@ -5486,7 +5502,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>263</v>
@@ -5506,7 +5522,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>260</v>
@@ -5526,7 +5542,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>256</v>
@@ -5546,7 +5562,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>253</v>
@@ -5566,7 +5582,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>250</v>
@@ -5586,7 +5602,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>246</v>
@@ -5606,7 +5622,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>243</v>
@@ -5626,7 +5642,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>240</v>
@@ -5646,7 +5662,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>237</v>
@@ -5666,7 +5682,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>233</v>
@@ -5686,7 +5702,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>230</v>
@@ -5706,7 +5722,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>227</v>
@@ -5726,7 +5742,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>224</v>
@@ -5746,7 +5762,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>220</v>
@@ -5766,7 +5782,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>216</v>
@@ -5786,7 +5802,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>213</v>
@@ -5806,7 +5822,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>209</v>
@@ -5826,7 +5842,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>205</v>
@@ -5846,7 +5862,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>202</v>
@@ -5866,7 +5882,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>199</v>
@@ -5886,7 +5902,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>196</v>
@@ -5906,7 +5922,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>193</v>
@@ -5926,7 +5942,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>190</v>
@@ -5946,7 +5962,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>187</v>
@@ -5966,7 +5982,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>183</v>
@@ -5986,7 +6002,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>180</v>
@@ -6006,7 +6022,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>176</v>
@@ -6026,7 +6042,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>173</v>
@@ -6046,7 +6062,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>170</v>
@@ -6066,7 +6082,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>167</v>
@@ -6086,7 +6102,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>163</v>
@@ -6106,7 +6122,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>159</v>
@@ -6126,7 +6142,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>155</v>
@@ -6146,7 +6162,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>151</v>
@@ -6166,7 +6182,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>147</v>
@@ -6186,7 +6202,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>143</v>
@@ -6206,7 +6222,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>139</v>
@@ -6226,7 +6242,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>135</v>
@@ -6246,7 +6262,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>132</v>
@@ -6266,7 +6282,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>128</v>
@@ -6286,7 +6302,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>124</v>
@@ -6311,7 +6327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12896,11 +12912,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D42182D-96DD-4FCE-B902-BFB0EBB22B49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12911,15 +12954,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>453</v>
@@ -12927,7 +12970,7 @@
     </row>
     <row r="3" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>454</v>
@@ -12935,7 +12978,7 @@
     </row>
     <row r="4" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>455</v>
@@ -12943,7 +12986,7 @@
     </row>
     <row r="5" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>456</v>
@@ -12951,7 +12994,7 @@
     </row>
     <row r="6" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>457</v>
@@ -12959,7 +13002,7 @@
     </row>
     <row r="7" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>458</v>
@@ -12967,7 +13010,7 @@
     </row>
     <row r="8" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>459</v>
@@ -12975,7 +13018,7 @@
     </row>
     <row r="9" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>460</v>
@@ -12983,7 +13026,7 @@
     </row>
     <row r="10" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>461</v>
@@ -12991,7 +13034,7 @@
     </row>
     <row r="11" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>462</v>
@@ -12999,7 +13042,7 @@
     </row>
     <row r="12" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>463</v>
@@ -13007,7 +13050,7 @@
     </row>
     <row r="13" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>464</v>
@@ -13015,7 +13058,7 @@
     </row>
     <row r="14" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>465</v>
@@ -13023,7 +13066,7 @@
     </row>
     <row r="15" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>466</v>
@@ -13031,7 +13074,7 @@
     </row>
     <row r="16" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>467</v>
@@ -13039,7 +13082,7 @@
     </row>
     <row r="17" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>468</v>
@@ -13047,7 +13090,7 @@
     </row>
     <row r="18" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>469</v>
@@ -13055,7 +13098,7 @@
     </row>
     <row r="19" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>470</v>
@@ -13063,15 +13106,18 @@
     </row>
     <row r="20" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>472</v>
+    <row r="21" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
